--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portatil-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Desktop\Clase\Jose\TimeTableManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
     <sheet name="Titulaciones" sheetId="2" r:id="rId2"/>
     <sheet name="Asignaturas" sheetId="3" r:id="rId3"/>
+    <sheet name="Aulas" sheetId="4" r:id="rId4"/>
+    <sheet name="Grupos" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>IS</t>
   </si>
@@ -63,11 +65,17 @@
   <si>
     <t>ISI</t>
   </si>
+  <si>
+    <t>1.5.10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,6 +211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -238,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,7 +440,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +595,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>